--- a/web/download/billing.xlsx
+++ b/web/download/billing.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>Ведомость по оплате за электроэнергию</t>
   </si>
@@ -29,7 +29,7 @@
     <t>август</t>
   </si>
   <si>
-    <t>Участок №</t>
+    <t>№ п\п</t>
   </si>
   <si>
     <t>Территория</t>
@@ -42,6 +42,18 @@
   </si>
   <si>
     <t>К оплате, руб</t>
+  </si>
+  <si>
+    <t>МС Выставка</t>
+  </si>
+  <si>
+    <t>ИП Борисенко А.В.</t>
+  </si>
+  <si>
+    <t>Вологда Сруб</t>
+  </si>
+  <si>
+    <t>ИТОГО:</t>
   </si>
 </sst>
 </file>
@@ -80,17 +92,107 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="2" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="2" fillId="0" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -392,18 +494,18 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="16.424561" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -432,21 +534,46 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" s="9" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/web/download/billing.xlsx
+++ b/web/download/billing.xlsx
@@ -565,7 +565,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="4">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -573,7 +573,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="6">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/web/download/billing.xlsx
+++ b/web/download/billing.xlsx
@@ -565,7 +565,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="4">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -573,7 +573,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="6">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/web/download/billing.xlsx
+++ b/web/download/billing.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
   <si>
     <t>Ведомость по оплате за электроэнергию</t>
   </si>
@@ -51,6 +51,204 @@
   </si>
   <si>
     <t>Вологда Сруб</t>
+  </si>
+  <si>
+    <t>Дас Хауз</t>
+  </si>
+  <si>
+    <t>ИП Тютюник</t>
+  </si>
+  <si>
+    <t>ЛесДревПром</t>
+  </si>
+  <si>
+    <t>Мобил Строй ХХI</t>
+  </si>
+  <si>
+    <t>Правильный дом</t>
+  </si>
+  <si>
+    <t>Русский дом</t>
+  </si>
+  <si>
+    <t>Тамак</t>
+  </si>
+  <si>
+    <t>Шельф</t>
+  </si>
+  <si>
+    <t>Энерго Девелопмент</t>
+  </si>
+  <si>
+    <t>ИП Коняхин Р.А.</t>
+  </si>
+  <si>
+    <t>Альп Хоум</t>
+  </si>
+  <si>
+    <t>Домострой-ЛСК</t>
+  </si>
+  <si>
+    <t>Древоград</t>
+  </si>
+  <si>
+    <t>Заволжский ДОЗ</t>
+  </si>
+  <si>
+    <t>Ип Андриянов Сити Сип</t>
+  </si>
+  <si>
+    <t>ИП Домогадский</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП Рожков </t>
+  </si>
+  <si>
+    <t>Концепт</t>
+  </si>
+  <si>
+    <t>Лескон</t>
+  </si>
+  <si>
+    <t>Малер Хаус</t>
+  </si>
+  <si>
+    <t>Наносфера</t>
+  </si>
+  <si>
+    <t>НОВЫЕ СТРОИТЕЛЬНЫЕ ТЕХНОЛОГИИ</t>
+  </si>
+  <si>
+    <t>Новые строительные технологии МСДК</t>
+  </si>
+  <si>
+    <t>НХБС</t>
+  </si>
+  <si>
+    <t>ООО ИНТЕРСИТИ-СТРОЙ</t>
+  </si>
+  <si>
+    <t>ООО"Альфа"</t>
+  </si>
+  <si>
+    <t>ПЗМ</t>
+  </si>
+  <si>
+    <t>Подмосковные усадьбы</t>
+  </si>
+  <si>
+    <t>Родные просторы</t>
+  </si>
+  <si>
+    <t>СВА Проект</t>
+  </si>
+  <si>
+    <t>СК Пересвет</t>
+  </si>
+  <si>
+    <t>СтройДом</t>
+  </si>
+  <si>
+    <t>Центурион</t>
+  </si>
+  <si>
+    <t>ЭКОДОМ</t>
+  </si>
+  <si>
+    <t>МС ОП</t>
+  </si>
+  <si>
+    <t>Приват глас</t>
+  </si>
+  <si>
+    <t>МС ОПГС</t>
+  </si>
+  <si>
+    <t>ИП Нижников</t>
+  </si>
+  <si>
+    <t>Плайн (беседка)</t>
+  </si>
+  <si>
+    <t>ТопсХаус</t>
+  </si>
+  <si>
+    <t>Складской комплекс</t>
+  </si>
+  <si>
+    <t>Авеланна</t>
+  </si>
+  <si>
+    <t>ИП Леньшин И.В.</t>
+  </si>
+  <si>
+    <t>АБ Маркет</t>
+  </si>
+  <si>
+    <t>Автопаркс</t>
+  </si>
+  <si>
+    <t>Автопаркс-офис</t>
+  </si>
+  <si>
+    <t>Диал транс 11/2 сек</t>
+  </si>
+  <si>
+    <t>Диал транс-офис</t>
+  </si>
+  <si>
+    <t>Дрея</t>
+  </si>
+  <si>
+    <t>Дрея-офис</t>
+  </si>
+  <si>
+    <t>ИП Рашев</t>
+  </si>
+  <si>
+    <t>ИП Рашев секция 9/1</t>
+  </si>
+  <si>
+    <t>КРС Престиж</t>
+  </si>
+  <si>
+    <t>КРС престиж офис</t>
+  </si>
+  <si>
+    <t>Мосторг</t>
+  </si>
+  <si>
+    <t>Неос ингредиент</t>
+  </si>
+  <si>
+    <t>Неос ингридиент зарядка</t>
+  </si>
+  <si>
+    <t>Неос ингридиент-офис</t>
+  </si>
+  <si>
+    <t>ООО Электроникс офис</t>
+  </si>
+  <si>
+    <t>Сансити</t>
+  </si>
+  <si>
+    <t>Сансити-офис</t>
+  </si>
+  <si>
+    <t>Царский Поставщик</t>
+  </si>
+  <si>
+    <t>ИП Леньшина Л.Г.</t>
+  </si>
+  <si>
+    <t>Арсенал Мотор</t>
+  </si>
+  <si>
+    <t>Биком</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Империя Логистики </t>
   </si>
   <si>
     <t>ИТОГО:</t>
@@ -494,7 +692,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="E5" sqref="E5"/>
@@ -503,9 +701,9 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="22.280273" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="21.137695" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="41.132813" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="16.424561" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -565,15 +763,1035 @@
         <v>11</v>
       </c>
       <c r="E6" s="4">
+        <v>705.33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4">
+        <v>134.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="4">
+        <v>35.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="4">
+        <v>471.83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3949.88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1207.67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="4">
+        <v>412.66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1400.74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="4">
+        <v>608.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="4">
+        <v>422.86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1078.79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="4">
+        <v>778.13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1292.03</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
+        <v>14</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="4">
+        <v>536.13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="D7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="6">
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
+        <v>16</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="4">
+        <v>248.68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
+        <v>17</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="4">
+        <v>919.51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
+        <v>18</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="4">
+        <v>285.76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
+        <v>19</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="4">
+        <v>174.51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
+        <v>20</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1418.37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
+        <v>21</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1812.23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2">
+        <v>22</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1692.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2">
+        <v>23</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2506.42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2">
+        <v>24</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1832.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2">
+        <v>25</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1274.59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2">
+        <v>26</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="4">
+        <v>213.85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2">
+        <v>27</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="4">
+        <v>950.06</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2">
+        <v>28</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="4">
+        <v>132.77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2">
+        <v>29</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="4">
+        <v>517.47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2">
+        <v>30</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="4">
+        <v>484.71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2">
+        <v>31</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="4">
+        <v>154.11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
+        <v>32</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="4">
+        <v>642.16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>33</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="4">
+        <v>213.62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>34</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="4">
+        <v>725.91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>35</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="4">
+        <v>29.61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2">
+        <v>36</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="4">
+        <v>6.11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2">
+        <v>37</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2">
+        <v>38</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="4">
+        <v>885.01</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2">
+        <v>39</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="4">
+        <v>759.52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2">
+        <v>40</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" s="4">
+        <v>765.63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2">
+        <v>41</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E46" s="4">
+        <v>42.77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2">
+        <v>42</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1600.35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2">
+        <v>43</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="4">
+        <v>201.63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2">
+        <v>44</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1025.07</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2">
+        <v>45</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" s="4">
+        <v>689.96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2">
+        <v>46</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" s="4">
+        <v>2479.72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2">
+        <v>47</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="4">
+        <v>266.54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <v>48</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E53" s="4">
+        <v>68.62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>49</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54" s="4">
+        <v>3871.39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="2">
+        <v>50</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E55" s="4">
+        <v>122.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="2">
+        <v>51</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E56" s="4">
+        <v>178.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="2">
+        <v>52</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E57" s="4">
+        <v>644.84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="2">
+        <v>53</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E58" s="4">
         <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="2">
+        <v>54</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="4">
+        <v>921.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="2">
+        <v>55</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E60" s="4">
+        <v>117.97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="2">
+        <v>56</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E61" s="4">
+        <v>308.32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="2">
+        <v>57</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E62" s="4">
+        <v>57.34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="2">
+        <v>58</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E63" s="4">
+        <v>1202.26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="2">
+        <v>59</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E64" s="4">
+        <v>1908.67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="2">
+        <v>60</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E65" s="4">
+        <v>3240.65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="2">
+        <v>61</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E66" s="4">
+        <v>5514.04</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="D67" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E67" s="6">
+        <v>56144.75</v>
       </c>
     </row>
   </sheetData>

--- a/web/download/billing.xlsx
+++ b/web/download/billing.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
   <si>
     <t>Ведомость по оплате за электроэнергию</t>
   </si>
@@ -26,7 +26,7 @@
     <t>Месяц</t>
   </si>
   <si>
-    <t>август</t>
+    <t>сентябрь</t>
   </si>
   <si>
     <t>№ п\п</t>
@@ -83,9 +83,6 @@
     <t>ИП Коняхин Р.А.</t>
   </si>
   <si>
-    <t>Альп Хоум</t>
-  </si>
-  <si>
     <t>Домострой-ЛСК</t>
   </si>
   <si>
@@ -95,18 +92,12 @@
     <t>Заволжский ДОЗ</t>
   </si>
   <si>
-    <t>Ип Андриянов Сити Сип</t>
-  </si>
-  <si>
     <t>ИП Домогадский</t>
   </si>
   <si>
     <t xml:space="preserve">ИП Рожков </t>
   </si>
   <si>
-    <t>Концепт</t>
-  </si>
-  <si>
     <t>Лескон</t>
   </si>
   <si>
@@ -125,9 +116,6 @@
     <t>НХБС</t>
   </si>
   <si>
-    <t>ООО ИНТЕРСИТИ-СТРОЙ</t>
-  </si>
-  <si>
     <t>ООО"Альфа"</t>
   </si>
   <si>
@@ -146,15 +134,27 @@
     <t>СК Пересвет</t>
   </si>
   <si>
+    <t>Смарт Проджектс</t>
+  </si>
+  <si>
     <t>СтройДом</t>
   </si>
   <si>
+    <t>Топс хаус</t>
+  </si>
+  <si>
     <t>Центурион</t>
   </si>
   <si>
     <t>ЭКОДОМ</t>
   </si>
   <si>
+    <t>ИП Леньшин И.В.</t>
+  </si>
+  <si>
+    <t>Бигхаус</t>
+  </si>
+  <si>
     <t>МС ОП</t>
   </si>
   <si>
@@ -179,9 +179,6 @@
     <t>Авеланна</t>
   </si>
   <si>
-    <t>ИП Леньшин И.В.</t>
-  </si>
-  <si>
     <t>АБ Маркет</t>
   </si>
   <si>
@@ -209,6 +206,9 @@
     <t>ИП Рашев секция 9/1</t>
   </si>
   <si>
+    <t>Компания СВ</t>
+  </si>
+  <si>
     <t>КРС Престиж</t>
   </si>
   <si>
@@ -227,6 +227,9 @@
     <t>Неос ингридиент-офис</t>
   </si>
   <si>
+    <t>ООО Алекс групп</t>
+  </si>
+  <si>
     <t>ООО Электроникс офис</t>
   </si>
   <si>
@@ -249,6 +252,9 @@
   </si>
   <si>
     <t xml:space="preserve">Империя Логистики </t>
+  </si>
+  <si>
+    <t>Стальпром</t>
   </si>
   <si>
     <t>ИТОГО:</t>
@@ -692,7 +698,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="E5" sqref="E5"/>
@@ -763,7 +769,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="4">
-        <v>705.33</v>
+        <v>1227.08</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -780,7 +786,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="4">
-        <v>134.75</v>
+        <v>1141.72</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -797,7 +803,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="4">
-        <v>35.72</v>
+        <v>130.66</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -814,7 +820,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="4">
-        <v>471.83</v>
+        <v>1613.09</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -831,7 +837,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="4">
-        <v>3949.88</v>
+        <v>6000.49</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -848,7 +854,7 @@
         <v>16</v>
       </c>
       <c r="E11" s="4">
-        <v>1207.67</v>
+        <v>1758.41</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -865,7 +871,7 @@
         <v>17</v>
       </c>
       <c r="E12" s="4">
-        <v>412.66</v>
+        <v>1320.7</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -882,7 +888,7 @@
         <v>18</v>
       </c>
       <c r="E13" s="4">
-        <v>1400.74</v>
+        <v>2748.56</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -899,7 +905,7 @@
         <v>19</v>
       </c>
       <c r="E14" s="4">
-        <v>608.7</v>
+        <v>1723.44</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -916,7 +922,7 @@
         <v>20</v>
       </c>
       <c r="E15" s="4">
-        <v>422.86</v>
+        <v>624.4</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -933,7 +939,7 @@
         <v>22</v>
       </c>
       <c r="E16" s="4">
-        <v>1078.79</v>
+        <v>2894.87</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -950,7 +956,7 @@
         <v>23</v>
       </c>
       <c r="E17" s="4">
-        <v>778.13</v>
+        <v>2078.76</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -967,7 +973,7 @@
         <v>24</v>
       </c>
       <c r="E18" s="4">
-        <v>1292.03</v>
+        <v>640.88</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -984,7 +990,7 @@
         <v>25</v>
       </c>
       <c r="E19" s="4">
-        <v>536.13</v>
+        <v>1757.66</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1001,7 +1007,7 @@
         <v>26</v>
       </c>
       <c r="E20" s="4">
-        <v>0</v>
+        <v>2026.41</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1018,7 +1024,7 @@
         <v>27</v>
       </c>
       <c r="E21" s="4">
-        <v>248.68</v>
+        <v>689.11</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1035,7 +1041,7 @@
         <v>28</v>
       </c>
       <c r="E22" s="4">
-        <v>919.51</v>
+        <v>1367.09</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1052,7 +1058,7 @@
         <v>29</v>
       </c>
       <c r="E23" s="4">
-        <v>285.76</v>
+        <v>3197.41</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1069,7 +1075,7 @@
         <v>30</v>
       </c>
       <c r="E24" s="4">
-        <v>174.51</v>
+        <v>6904.68</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1086,7 +1092,7 @@
         <v>31</v>
       </c>
       <c r="E25" s="4">
-        <v>1418.37</v>
+        <v>2391.74</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1103,7 +1109,7 @@
         <v>32</v>
       </c>
       <c r="E26" s="4">
-        <v>1812.23</v>
+        <v>2469.29</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1120,7 +1126,7 @@
         <v>33</v>
       </c>
       <c r="E27" s="4">
-        <v>1692.7</v>
+        <v>637.3200000000001</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1137,7 +1143,7 @@
         <v>34</v>
       </c>
       <c r="E28" s="4">
-        <v>2506.42</v>
+        <v>3379.35</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1154,7 +1160,7 @@
         <v>35</v>
       </c>
       <c r="E29" s="4">
-        <v>1832.2</v>
+        <v>326.09</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1171,7 +1177,7 @@
         <v>36</v>
       </c>
       <c r="E30" s="4">
-        <v>1274.59</v>
+        <v>1007.12</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1188,7 +1194,7 @@
         <v>37</v>
       </c>
       <c r="E31" s="4">
-        <v>213.85</v>
+        <v>2048.4</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1205,7 +1211,7 @@
         <v>38</v>
       </c>
       <c r="E32" s="4">
-        <v>950.06</v>
+        <v>349.45</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1222,7 +1228,7 @@
         <v>39</v>
       </c>
       <c r="E33" s="4">
-        <v>132.77</v>
+        <v>928.25</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1239,7 +1245,7 @@
         <v>40</v>
       </c>
       <c r="E34" s="4">
-        <v>517.47</v>
+        <v>1325.26</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1256,7 +1262,7 @@
         <v>41</v>
       </c>
       <c r="E35" s="4">
-        <v>484.71</v>
+        <v>2189.17</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1273,7 +1279,7 @@
         <v>42</v>
       </c>
       <c r="E36" s="4">
-        <v>154.11</v>
+        <v>1261.81</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1290,7 +1296,7 @@
         <v>43</v>
       </c>
       <c r="E37" s="4">
-        <v>642.16</v>
+        <v>2542.84</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1301,13 +1307,13 @@
         <v>9</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E38" s="4">
-        <v>213.62</v>
+        <v>380.7</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1315,16 +1321,16 @@
         <v>34</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E39" s="4">
-        <v>725.91</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1332,16 +1338,16 @@
         <v>35</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E40" s="4">
-        <v>29.61</v>
+        <v>12.22</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1355,10 +1361,10 @@
         <v>10</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E41" s="4">
-        <v>6.11</v>
+        <v>4.23</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1372,10 +1378,10 @@
         <v>10</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E42" s="4">
-        <v>1.88</v>
+        <v>2468.91</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1383,16 +1389,16 @@
         <v>38</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E43" s="4">
-        <v>885.01</v>
+        <v>930.6</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1403,13 +1409,13 @@
         <v>52</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E44" s="4">
-        <v>759.52</v>
+        <v>1446.66</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1420,13 +1426,13 @@
         <v>52</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E45" s="4">
-        <v>765.63</v>
+        <v>96.34999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1437,13 +1443,13 @@
         <v>52</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E46" s="4">
-        <v>42.77</v>
+        <v>1851.8</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1454,13 +1460,13 @@
         <v>52</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E47" s="4">
-        <v>1600.35</v>
+        <v>197.4</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1471,13 +1477,13 @@
         <v>52</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E48" s="4">
-        <v>201.63</v>
+        <v>1690.59</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1488,13 +1494,13 @@
         <v>52</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E49" s="4">
-        <v>1025.07</v>
+        <v>620.4</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1505,13 +1511,13 @@
         <v>52</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E50" s="4">
-        <v>689.96</v>
+        <v>2757.96</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1522,13 +1528,13 @@
         <v>52</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>61</v>
       </c>
       <c r="E51" s="4">
-        <v>2479.72</v>
+        <v>465.86</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1539,13 +1545,13 @@
         <v>52</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E52" s="4">
-        <v>266.54</v>
+        <v>91.18000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1556,13 +1562,13 @@
         <v>52</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E53" s="4">
-        <v>68.62</v>
+        <v>404.2</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1573,13 +1579,13 @@
         <v>52</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>64</v>
       </c>
       <c r="E54" s="4">
-        <v>3871.39</v>
+        <v>2355.64</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1590,13 +1596,13 @@
         <v>52</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E55" s="4">
-        <v>122.2</v>
+        <v>1021.31</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1607,13 +1613,13 @@
         <v>52</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E56" s="4">
-        <v>178.6</v>
+        <v>217.89</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1624,13 +1630,13 @@
         <v>52</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>67</v>
       </c>
       <c r="E57" s="4">
-        <v>644.84</v>
+        <v>1233.28</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1641,13 +1647,13 @@
         <v>52</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>68</v>
       </c>
       <c r="E58" s="4">
-        <v>0</v>
+        <v>46.06</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1658,13 +1664,13 @@
         <v>52</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>69</v>
       </c>
       <c r="E59" s="4">
-        <v>921.2</v>
+        <v>755.76</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1675,13 +1681,13 @@
         <v>52</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>70</v>
       </c>
       <c r="E60" s="4">
-        <v>117.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1692,13 +1698,13 @@
         <v>52</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>71</v>
       </c>
       <c r="E61" s="4">
-        <v>308.32</v>
+        <v>234.53</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1709,13 +1715,13 @@
         <v>52</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>72</v>
       </c>
       <c r="E62" s="4">
-        <v>57.34</v>
+        <v>305.5</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1726,13 +1732,13 @@
         <v>52</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>73</v>
       </c>
       <c r="E63" s="4">
-        <v>1202.26</v>
+        <v>394.33</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1743,13 +1749,13 @@
         <v>52</v>
       </c>
       <c r="C64" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="E64" s="4">
-        <v>1908.67</v>
+        <v>3388.23</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1760,13 +1766,13 @@
         <v>52</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>76</v>
       </c>
       <c r="E65" s="4">
-        <v>3240.65</v>
+        <v>3464.37</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1777,21 +1783,55 @@
         <v>52</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>77</v>
       </c>
       <c r="E66" s="4">
-        <v>5514.04</v>
+        <v>3587.51</v>
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="D67" s="5" t="s">
+      <c r="A67" s="2">
+        <v>62</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E67" s="6">
-        <v>56144.75</v>
+      <c r="E67" s="4">
+        <v>7368.66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="2">
+        <v>63</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="D69" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E69" s="6">
+        <v>98522.30999999995</v>
       </c>
     </row>
   </sheetData>
